--- a/AI_Process_Log.xlsx
+++ b/AI_Process_Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00233845\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00233845\Documents\Emerging technologies\cinema-bookings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E214311-00CB-4818-BC6F-E28CC67EA00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38791BB0-599C-4AFD-B25D-D8077288EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI Process Log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>AI PROCESS LOG</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>got the ai to actually make the location page and try to fix the bookings also told it to "stylise the website"</t>
+  </si>
+  <si>
+    <t>Got the ai to fix the booking</t>
+  </si>
+  <si>
+    <t>Ai gave back the booking working completely fine now</t>
+  </si>
+  <si>
+    <t>Booking worked completely fine, all of the functionality is fine on the page</t>
+  </si>
+  <si>
+    <t>The ai is starting to make mistakes with its syntax, not sure if it’s the amount its trying to work it, the ai is forgetting to add { and ( to the end of its code causing errors I'd have to manually fix</t>
+  </si>
+  <si>
+    <t>Did the same tests as last time and went through the code myself to find what the ai was struggling with. Tried multiple times to get the ai to fix it itself however it just wasn’t able to</t>
   </si>
 </sst>
 </file>
@@ -286,20 +301,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,62 +635,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -685,118 +700,118 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -834,7 +849,7 @@
       <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="6">
         <v>46056</v>
       </c>
       <c r="C17" s="3">
@@ -862,7 +877,7 @@
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>46057</v>
       </c>
       <c r="C18" s="3">
@@ -892,7 +907,7 @@
       <c r="A19" s="5">
         <v>3</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>46057</v>
       </c>
       <c r="C19" s="3">
@@ -922,14 +937,30 @@
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,12 +1609,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:K4"/>
@@ -1592,21 +1617,18 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF200B604F543D4E96F8CC7C901240C3" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65cac28d9b88990158ba4af9b48a7352">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a14edb67-64d8-4b5b-8995-e266d62a7d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="796dc2f3a0be1b865fd6b38ecd54e07c" ns2:_="">
     <xsd:import namespace="a14edb67-64d8-4b5b-8995-e266d62a7d22"/>
@@ -1744,6 +1766,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1751,14 +1782,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1776,6 +1799,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}">
   <ds:schemaRefs>

--- a/AI_Process_Log.xlsx
+++ b/AI_Process_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00233845\Documents\Emerging technologies\cinema-bookings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38791BB0-599C-4AFD-B25D-D8077288EC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FDB50E-9A9A-4FDB-8941-BE33C1930E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,17 +27,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>AI PROCESS LOG</t>
   </si>
@@ -126,18 +125,18 @@
     <t>Github copilot</t>
   </si>
   <si>
+    <t>started with the css and the look for the website with no functionality. And then proceeded to ask the ai to edit it to make it more presentable. Create the data</t>
+  </si>
+  <si>
+    <t>Gave code for a very simple looking page with only text and no cards using html and css at first. And then the website started to look more presentable after the ai was prompted to use cards to display the information. The ai used javascript to create the data</t>
+  </si>
+  <si>
     <t>Everything worked for the most part at this point as the prompt was very simple to begin with</t>
   </si>
   <si>
     <t>the ai isnt very creative with the css, images that it tried to make didn’t work</t>
   </si>
   <si>
-    <t>started with the css and the look for the website with no functionality. And then proceeded to ask the ai to edit it to make it more presentable. Create the data</t>
-  </si>
-  <si>
-    <t>Gave code for a very simple looking page with only text and no cards using html and css at first. And then the website started to look more presentable after the ai was prompted to use cards to display the information. The ai used javascript to create the data</t>
-  </si>
-  <si>
     <t>got the ai to change the website so that users can book the on the website</t>
   </si>
   <si>
@@ -147,27 +146,27 @@
     <t>The booking page worked fine for the most part, able to choose what seats I wanted, unconfirm the seating and change what seats</t>
   </si>
   <si>
+    <t>seats wouldn’t actually stay booked, some font choices are still difficult to read. The ai created a locations tab that has a redirect that is unfunctional</t>
+  </si>
+  <si>
     <t>I went into the website and tested the booking page in depth however the bookings I made never stayed booked</t>
   </si>
   <si>
-    <t>seats wouldn’t actually stay booked, some font choices are still difficult to read. The ai created a locations tab that has a redirect that is unfunctional</t>
+    <t>got the ai to actually make the location page and try to fix the bookings also told it to "stylise the website"</t>
   </si>
   <si>
     <t>Made the location page and made it so users have to register to access the page</t>
   </si>
   <si>
+    <t>The location page works completely fine using leaflet, accounts and login info save</t>
+  </si>
+  <si>
     <t>fonts are still difficult to read for some buttons, bookings still don't save</t>
   </si>
   <si>
-    <t>The location page works completely fine using leaflet, accounts and login info save</t>
-  </si>
-  <si>
     <t>I checked the location page which doesn’t seem to have any problems and bookings I did the same test as last time again users can book the same seats as each other</t>
   </si>
   <si>
-    <t>got the ai to actually make the location page and try to fix the bookings also told it to "stylise the website"</t>
-  </si>
-  <si>
     <t>Got the ai to fix the booking</t>
   </si>
   <si>
@@ -181,13 +180,79 @@
   </si>
   <si>
     <t>Did the same tests as last time and went through the code myself to find what the ai was struggling with. Tried multiple times to get the ai to fix it itself however it just wasn’t able to</t>
+  </si>
+  <si>
+    <t>Asked the ai to create a website again where its able to view what cinemas are in the area and what movies they can see like the 1st prompt i gave to it last time</t>
+  </si>
+  <si>
+    <t>Ai created a webpage that as immediately way more stylised that the first iteration</t>
+  </si>
+  <si>
+    <t>everything works fine as theres no functionality yet</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>scrolled the website a bit</t>
+  </si>
+  <si>
+    <t>Fed the ai images in a folder with different ratios and just told it to use them for each cinema it had made</t>
+  </si>
+  <si>
+    <t>Used each image fine, and even resized each image perfectly for use on the site</t>
+  </si>
+  <si>
+    <t>the images worked completely fine and resized them which i hadnt asked it to do</t>
+  </si>
+  <si>
+    <t>viewed the webpage</t>
+  </si>
+  <si>
+    <t>Asked the ai to add youtube trailers and give details of the movie</t>
+  </si>
+  <si>
+    <t>The ai outputted the youtube trailer links into the code and made it so the trailer would play on the site</t>
+  </si>
+  <si>
+    <t>Showing the movie details and the trailers somewhat worked</t>
+  </si>
+  <si>
+    <t>Only the trailers for the first cinema's movie work and the rest will not run intially the same trailer would play in every movie's details</t>
+  </si>
+  <si>
+    <t>I went through every movie one by one to make sure the movie trailers worked</t>
+  </si>
+  <si>
+    <t>the reason it could be broken, could be a youtube side and not my website</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>i asked chatgpt to create locations.html and use leaflet to create a map that shows the locations of the cinemas</t>
+  </si>
+  <si>
+    <t>Created a page that was just a map with a few basic pins and when the pins were clicked on details would come up</t>
+  </si>
+  <si>
+    <t>Viewing the map worked fine after a bit of tweaking and the pins showing the details worked perfectly fine once the map did</t>
+  </si>
+  <si>
+    <t>The map at first didnt show up at all because the ai had messed up a bit with getting leaflet to work however i got it to debug and correct it</t>
+  </si>
+  <si>
+    <t>went onto the map and pressed all the pins to make sure they were showing the right detail</t>
+  </si>
+  <si>
+    <t>I dont completely know how leaflet works so there could be issues that i dont see</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -302,6 +364,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -620,11 +685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
@@ -634,7 +699,7 @@
     <col min="8" max="11" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -649,7 +714,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -664,7 +729,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -679,7 +744,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -696,7 +761,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -717,7 +782,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -738,7 +803,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -753,7 +818,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -768,7 +833,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -783,7 +848,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -798,7 +863,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -813,799 +878,867 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:10" ht="60" customHeight="1">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>46056</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" customHeight="1">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>46057</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="60" customHeight="1">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>46057</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" customHeight="1">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>46057</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" customHeight="1">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>46059</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="60" customHeight="1">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>46059</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" customHeight="1">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>46059</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" customHeight="1">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>46061</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" customHeight="1">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1">
+      <c r="A27" s="4">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="60" customHeight="1">
+      <c r="A28" s="4">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" customHeight="1">
+      <c r="A29" s="4">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="60" customHeight="1">
+      <c r="A30" s="4">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="60" customHeight="1">
+      <c r="A31" s="4">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" customHeight="1">
+      <c r="A32" s="4">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" customHeight="1">
+      <c r="A33" s="4">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" customHeight="1">
+      <c r="A34" s="4">
+        <v>18</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" customHeight="1">
+      <c r="A35" s="4">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" customHeight="1">
+      <c r="A36" s="4">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" customHeight="1">
+      <c r="A37" s="4">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" customHeight="1">
+      <c r="A38" s="4">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1">
+      <c r="A39" s="4">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1">
+      <c r="A40" s="4">
+        <v>24</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" customHeight="1">
+      <c r="A41" s="4">
+        <v>25</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" customHeight="1">
+      <c r="A42" s="4">
+        <v>26</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" customHeight="1">
+      <c r="A43" s="4">
+        <v>27</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="60" customHeight="1">
+      <c r="A44" s="4">
+        <v>28</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" customHeight="1">
+      <c r="A45" s="4">
         <v>29</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="60" customHeight="1">
+      <c r="A46" s="4">
         <v>30</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6">
-        <v>46057</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" customHeight="1">
+      <c r="A47" s="4">
+        <v>31</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" customHeight="1">
+      <c r="A48" s="4">
+        <v>32</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" customHeight="1">
+      <c r="A49" s="4">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="60" customHeight="1">
+      <c r="A50" s="4">
         <v>34</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" customHeight="1">
+      <c r="A51" s="4">
         <v>35</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" customHeight="1">
+      <c r="A52" s="4">
+        <v>36</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" customHeight="1">
+      <c r="A53" s="4">
         <v>37</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6">
-        <v>46057</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="60" customHeight="1">
+      <c r="A54" s="4">
+        <v>38</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" ht="60" customHeight="1">
+      <c r="A55" s="4">
+        <v>39</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" ht="60" customHeight="1">
+      <c r="A56" s="4">
+        <v>40</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="60" customHeight="1">
+      <c r="A57" s="4">
+        <v>41</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" ht="60" customHeight="1">
+      <c r="A58" s="4">
         <v>42</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6">
-        <v>46057</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" ht="60" customHeight="1">
+      <c r="A59" s="4">
         <v>43</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="60" customHeight="1">
+      <c r="A60" s="4">
         <v>44</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" ht="60" customHeight="1">
+      <c r="A61" s="4">
         <v>45</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" ht="60" customHeight="1">
+      <c r="A62" s="4">
         <v>46</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="60" customHeight="1">
+      <c r="A63" s="4">
         <v>47</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>11</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>13</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>20</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>21</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>25</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>26</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>27</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>28</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>29</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>30</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>33</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>34</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>35</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>36</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>37</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>38</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>39</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>40</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>41</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>42</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>43</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>44</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>45</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>46</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>47</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="60" customHeight="1">
+      <c r="A64" s="4">
         <v>48</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" ht="60" customHeight="1">
+      <c r="A65" s="4">
         <v>49</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="60" customHeight="1">
+      <c r="A66" s="4">
         <v>50</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1782,36 +1915,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a14edb67-64d8-4b5b-8995-e266d62a7d22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}"/>
 </file>
--- a/AI_Process_Log.xlsx
+++ b/AI_Process_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00233845\Documents\Emerging technologies\cinema-bookings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FDB50E-9A9A-4FDB-8941-BE33C1930E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAFB68-4B3E-4ADB-BEF8-1804BA606DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI Process Log" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>AI PROCESS LOG</t>
   </si>
@@ -246,13 +247,28 @@
   </si>
   <si>
     <t>I dont completely know how leaflet works so there could be issues that i dont see</t>
+  </si>
+  <si>
+    <t>Asked copilot to add a register and login page</t>
+  </si>
+  <si>
+    <t>the buttons for the page were completely different from the rest of the formatting of the page</t>
+  </si>
+  <si>
+    <t>Created the login and register page functionality with buttons to register or login</t>
+  </si>
+  <si>
+    <t>functionality of the webpage worked perfectly fine</t>
+  </si>
+  <si>
+    <t>tested both the login and register to make sure they were working fine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,17 +385,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,11 +701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
@@ -699,8 +715,8 @@
     <col min="8" max="11" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -714,8 +730,8 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
@@ -729,8 +745,8 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
@@ -744,7 +760,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +777,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +798,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -803,8 +819,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8"/>
@@ -818,8 +834,8 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9"/>
@@ -833,8 +849,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8"/>
@@ -848,8 +864,8 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="9"/>
@@ -863,8 +879,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8"/>
@@ -878,7 +894,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1">
+    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -910,7 +926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" customHeight="1">
+    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -938,7 +954,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="60" customHeight="1">
+    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -968,7 +984,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1">
+    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -998,7 +1014,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="60" customHeight="1">
+    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -1028,7 +1044,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1">
+    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1058,7 +1074,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1">
+    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -1088,7 +1104,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="60" customHeight="1">
+    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -1120,7 +1136,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" customHeight="1">
+    <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -1152,21 +1168,37 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" customHeight="1">
+    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="5">
+        <v>46062</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="60" customHeight="1">
+    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -1180,7 +1212,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="60" customHeight="1">
+    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -1194,7 +1226,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="60" customHeight="1">
+    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -1208,7 +1240,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1">
+    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -1222,7 +1254,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1">
+    <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -1236,7 +1268,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="60" customHeight="1">
+    <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -1250,7 +1282,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="60" customHeight="1">
+    <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -1264,7 +1296,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="60" customHeight="1">
+    <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -1278,7 +1310,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="60" customHeight="1">
+    <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -1292,7 +1324,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="60" customHeight="1">
+    <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -1306,7 +1338,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="60" customHeight="1">
+    <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -1320,7 +1352,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="60" customHeight="1">
+    <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -1334,7 +1366,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1">
+    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -1348,7 +1380,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="60" customHeight="1">
+    <row r="39" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -1362,7 +1394,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="60" customHeight="1">
+    <row r="40" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -1376,7 +1408,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="60" customHeight="1">
+    <row r="41" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -1390,7 +1422,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="60" customHeight="1">
+    <row r="42" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -1404,7 +1436,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="60" customHeight="1">
+    <row r="43" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -1418,7 +1450,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="60" customHeight="1">
+    <row r="44" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -1432,7 +1464,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="60" customHeight="1">
+    <row r="45" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -1446,7 +1478,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="60" customHeight="1">
+    <row r="46" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -1460,7 +1492,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" ht="60" customHeight="1">
+    <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -1474,7 +1506,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="60" customHeight="1">
+    <row r="48" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -1488,7 +1520,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" ht="60" customHeight="1">
+    <row r="49" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -1502,7 +1534,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="60" customHeight="1">
+    <row r="50" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -1516,7 +1548,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="60" customHeight="1">
+    <row r="51" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -1530,7 +1562,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" ht="60" customHeight="1">
+    <row r="52" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -1544,7 +1576,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" ht="60" customHeight="1">
+    <row r="53" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -1558,7 +1590,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="60" customHeight="1">
+    <row r="54" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -1572,7 +1604,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="60" customHeight="1">
+    <row r="55" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -1586,7 +1618,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" ht="60" customHeight="1">
+    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -1600,7 +1632,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" ht="60" customHeight="1">
+    <row r="57" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -1614,7 +1646,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="60" customHeight="1">
+    <row r="58" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -1628,7 +1660,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="60" customHeight="1">
+    <row r="59" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -1642,7 +1674,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="60" customHeight="1">
+    <row r="60" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -1656,7 +1688,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="60" customHeight="1">
+    <row r="61" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -1670,7 +1702,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="60" customHeight="1">
+    <row r="62" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -1684,7 +1716,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="60" customHeight="1">
+    <row r="63" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -1698,7 +1730,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="60" customHeight="1">
+    <row r="64" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -1712,7 +1744,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="60" customHeight="1">
+    <row r="65" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -1726,7 +1758,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" ht="60" customHeight="1">
+    <row r="66" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -1742,6 +1774,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:K4"/>
@@ -1750,18 +1788,21 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF200B604F543D4E96F8CC7C901240C3" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65cac28d9b88990158ba4af9b48a7352">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a14edb67-64d8-4b5b-8995-e266d62a7d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="796dc2f3a0be1b865fd6b38ecd54e07c" ns2:_="">
     <xsd:import namespace="a14edb67-64d8-4b5b-8995-e266d62a7d22"/>
@@ -1899,15 +1940,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1915,13 +1947,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a14edb67-64d8-4b5b-8995-e266d62a7d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AI_Process_Log.xlsx
+++ b/AI_Process_Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00233845\Documents\Emerging technologies\cinema-bookings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAFB68-4B3E-4ADB-BEF8-1804BA606DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B15052F-4F82-44E4-9D55-077353463A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,17 +27,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>AI PROCESS LOG</t>
   </si>
@@ -252,23 +251,77 @@
     <t>Asked copilot to add a register and login page</t>
   </si>
   <si>
+    <t>Created the login and register page functionality with buttons to register or login</t>
+  </si>
+  <si>
+    <t>functionality of the webpage worked perfectly fine</t>
+  </si>
+  <si>
     <t>the buttons for the page were completely different from the rest of the formatting of the page</t>
   </si>
   <si>
-    <t>Created the login and register page functionality with buttons to register or login</t>
-  </si>
-  <si>
-    <t>functionality of the webpage worked perfectly fine</t>
-  </si>
-  <si>
     <t>tested both the login and register to make sure they were working fine</t>
+  </si>
+  <si>
+    <t>OpenCodeAI</t>
+  </si>
+  <si>
+    <t>Asked OpenCode to just add whatever functions it wants to add that it thinks a user that has logged in should do</t>
+  </si>
+  <si>
+    <t>The AI added loads of features, User profile, Filter System, Reviews, rating system, favourites, pre ordering concessions, promotional codes, booking history and even made it so that the user data gets saved in localStorage</t>
+  </si>
+  <si>
+    <t>The user dashboard worked, comments worked partially, concessions ordering worked fine and viewing bookings that had been made was fine</t>
+  </si>
+  <si>
+    <t>Users were still able to make multiple bookings for the same seats, comments couldnt be deleted. only updated</t>
+  </si>
+  <si>
+    <t>I went through all the features, seeing if i could comment twice, and checked if the bookings changed anything in the seating once had booked</t>
+  </si>
+  <si>
+    <t>might be a few features i forgot to check or glossed over as im not completely sure what the ai added</t>
+  </si>
+  <si>
+    <t>Got openCode to remake the website's design, and add more cinema data</t>
+  </si>
+  <si>
+    <t>The ai added filtering to the map, redesigned the page entirely.</t>
+  </si>
+  <si>
+    <t>browsing the website worked but thats about it</t>
+  </si>
+  <si>
+    <t>The search function didnt work at all nor the filtering, a notifcation would just come up saying what it was filtering for, it also deleted the images i had put in for copilot to use whenever i clicked on details on the map it would also put my user name in the search bar. when the ai was trying to create info for one of the movies there were multiple directors and the ai didnt but them in an array</t>
+  </si>
+  <si>
+    <t>went through the entire page and carefully checked every detail that the ai had said it had changed</t>
+  </si>
+  <si>
+    <t>Got the ai to fix whatever errors it had and to remove any buttons that were useless</t>
+  </si>
+  <si>
+    <t>the ai removed most of the buttons and completely fixed the search function and made it so that you can search by director</t>
+  </si>
+  <si>
+    <t>practically everything worked perfectly fine to the point that even made it so that the user can search by director and rating</t>
+  </si>
+  <si>
+    <t>The map is still a bit broken when clicking on details for the cinema it will just zoom in on the point on the map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messed with the search engine to see what details the user can search with and i rechecked the map </t>
+  </si>
+  <si>
+    <t>Might've missed a button or two that the ai had put in that i hadnt noticed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,17 +438,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,11 +754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
@@ -715,8 +768,8 @@
     <col min="8" max="11" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -730,8 +783,8 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
@@ -745,8 +798,8 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
@@ -760,7 +813,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +830,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,7 +851,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -819,8 +872,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8"/>
@@ -834,8 +887,8 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9"/>
@@ -849,8 +902,8 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8"/>
@@ -864,8 +917,8 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="9"/>
@@ -879,8 +932,8 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8"/>
@@ -894,7 +947,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="35.1" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -926,7 +979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="60" customHeight="1">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -954,7 +1007,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="60" customHeight="1">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -984,7 +1037,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="60" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -1014,7 +1067,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="60" customHeight="1">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -1044,7 +1097,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="60" customHeight="1">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1074,7 +1127,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="60" customHeight="1">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -1104,7 +1157,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60" customHeight="1">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -1136,7 +1189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="60" customHeight="1">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -1168,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="60" customHeight="1">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -1185,62 +1238,114 @@
         <v>70</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>74</v>
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="60" customHeight="1">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>46062</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="5">
+        <v>46062</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="60" customHeight="1">
       <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>46062</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" customHeight="1">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -1254,7 +1359,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="60" customHeight="1">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -1268,7 +1373,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="60" customHeight="1">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -1282,7 +1387,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="60" customHeight="1">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -1296,7 +1401,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="60" customHeight="1">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -1310,7 +1415,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="60" customHeight="1">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -1324,7 +1429,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="60" customHeight="1">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -1338,7 +1443,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="60" customHeight="1">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -1352,7 +1457,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="60" customHeight="1">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -1366,7 +1471,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="60" customHeight="1">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -1380,7 +1485,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="60" customHeight="1">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -1394,7 +1499,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="60" customHeight="1">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -1408,7 +1513,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="60" customHeight="1">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -1422,7 +1527,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60" customHeight="1">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -1436,7 +1541,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="60" customHeight="1">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -1450,7 +1555,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="60" customHeight="1">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -1464,7 +1569,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="60" customHeight="1">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -1478,7 +1583,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="60" customHeight="1">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -1492,7 +1597,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="60" customHeight="1">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -1506,7 +1611,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="60" customHeight="1">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -1520,7 +1625,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="60" customHeight="1">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -1534,7 +1639,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="60" customHeight="1">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -1548,7 +1653,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="60" customHeight="1">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -1562,7 +1667,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="60" customHeight="1">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -1576,7 +1681,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="60" customHeight="1">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -1590,7 +1695,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="60" customHeight="1">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -1604,7 +1709,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="60" customHeight="1">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -1618,7 +1723,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="60" customHeight="1">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -1632,7 +1737,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="60" customHeight="1">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -1646,7 +1751,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="60" customHeight="1">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -1660,7 +1765,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="60" customHeight="1">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -1674,7 +1779,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="60" customHeight="1">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -1688,7 +1793,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="60" customHeight="1">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -1702,7 +1807,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="60" customHeight="1">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -1716,7 +1821,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="60" customHeight="1">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -1730,7 +1835,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="60" customHeight="1">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -1744,7 +1849,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="60" customHeight="1">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -1758,7 +1863,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="60" customHeight="1">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -1774,12 +1879,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A4:K4"/>
@@ -1788,18 +1887,21 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1941,42 +2043,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a14edb67-64d8-4b5b-8995-e266d62a7d22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4203073-7FF2-4136-A5EA-B189D8F74362}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62EF381A-753F-4574-BF74-42D6AF83CA80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{786E9469-6AE4-4683-B620-D6446712212D}"/>
 </file>